--- a/Checkpoint 7/BOM.xlsx
+++ b/Checkpoint 7/BOM.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="28800" windowHeight="11180"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
   <si>
     <t xml:space="preserve">Bill Of Materials for: [TEAM 2] </t>
   </si>
   <si>
-    <t>Last modified: [2022-11-07]</t>
-  </si>
-  <si>
-    <t>PCB version: [PCB VERSION #1]</t>
-  </si>
-  <si>
-    <t>BOM revision: [BOM REVISION #1]</t>
+    <t>Last modified: [2022-12-01]</t>
+  </si>
+  <si>
+    <t>PCB version: [PCB VERSION #2]</t>
+  </si>
+  <si>
+    <t>BOM revision: [BOM REVISION #2]</t>
   </si>
   <si>
     <t>P/NP</t>
@@ -124,13 +127,49 @@
     <t>B09437S9X4</t>
   </si>
   <si>
+    <t>R1-R10</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>NP</t>
-  </si>
-  <si>
-    <t>resistors</t>
+    <t>330Ohm 1/16W, 5% Resistors</t>
+  </si>
+  <si>
+    <t>EPL</t>
+  </si>
+  <si>
+    <t>U0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oshpark </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom PCB Board </t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP  </t>
+  </si>
+  <si>
+    <t>Craft Smart</t>
+  </si>
+  <si>
+    <t>Red Silicone Craft Mat</t>
+  </si>
+  <si>
+    <t>MSPCI</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>Custom 3D Printed Model</t>
   </si>
   <si>
     <t>TOTAL:</t>
@@ -152,43 +191,211 @@
   </si>
   <si>
     <t>Initial BOM. Not everything chosen yet</t>
+  </si>
+  <si>
+    <t>2.0r0</t>
+  </si>
+  <si>
+    <t>Final BOM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
-    <font>
-      <sz val="10.0"/>
+  <fonts count="24">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Sans"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -196,85 +403,540 @@
         <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -464,347 +1126,456 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="11.13"/>
-    <col customWidth="1" min="4" max="4" width="9.5"/>
-    <col customWidth="1" min="5" max="5" width="22.25"/>
-    <col customWidth="1" min="6" max="6" width="46.13"/>
-    <col customWidth="1" min="8" max="8" width="15.5"/>
-    <col customWidth="1" min="9" max="9" width="7.13"/>
+    <col min="1" max="1" width="5.94642857142857" customWidth="1"/>
+    <col min="2" max="2" width="23.0625" customWidth="1"/>
+    <col min="3" max="3" width="5.79464285714286" customWidth="1"/>
+    <col min="4" max="4" width="12.0446428571429" customWidth="1"/>
+    <col min="5" max="5" width="22.25" customWidth="1"/>
+    <col min="6" max="6" width="77.9732142857143" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="7.13392857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
+    <row r="6" customHeight="1" spans="1:10">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="7">
-        <v>25.0</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="7" customHeight="1" spans="1:10">
+      <c r="A7" s="5">
+        <v>75</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="11">
         <v>0.3</v>
       </c>
-      <c r="J7" s="8">
-        <v>6.99</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="J7" s="11">
+        <f>I7*75</f>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:10">
+      <c r="A8" s="5">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="11">
         <v>10.99</v>
       </c>
-      <c r="J8" s="8">
-        <v>10.99</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="J8" s="11">
+        <f>I8*2</f>
+        <v>21.98</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:10">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="11">
         <v>5.25</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="11">
         <v>20.99</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="10" customHeight="1" spans="1:10">
+      <c r="A10" s="5">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="11">
         <v>5.5</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="11">
         <v>22.21</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="11" customHeight="1" spans="1:10">
+      <c r="A11" s="5">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="11" t="s">
+      <c r="G11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="12">
-        <v>60.02</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
+      <c r="H11" s="9">
+        <v>1206</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="J11" s="11">
+        <f>I11*A11</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:10">
+      <c r="A12" s="3">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="16" t="s">
+      <c r="C12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="D12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="E12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="G12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="11">
+        <f>J12/4</f>
+        <v>20.575</v>
+      </c>
+      <c r="J12" s="11">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:10">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="18">
-        <v>44142.0</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18">
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="D13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="9">
+        <v>694300</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="10">
+        <v>10694300</v>
+      </c>
+      <c r="I13" s="11">
+        <v>5.24</v>
+      </c>
+      <c r="J13" s="11">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:10">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="11">
+        <v>7</v>
+      </c>
+      <c r="J14" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="8:10">
+      <c r="H15" s="3"/>
+      <c r="I15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="13">
+        <f>SUM(J7:J14)</f>
+        <v>183.82</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:10">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:10">
+      <c r="A17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:10">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:10">
+      <c r="A19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:10">
+      <c r="A20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="8">
+        <v>44872</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:10">
+      <c r="A21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="8">
+        <v>44896</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -813,9 +1584,10 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C20:F20"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>